--- a/resources/data/keyboard-shortcuts/macbook.xlsx
+++ b/resources/data/keyboard-shortcuts/macbook.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason/Documents/Cheat Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason/Documents/Development/Coding-Resources/resources/data/keyboard-shortcuts/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17020" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="739">
   <si>
     <t>"=MOD(ROW(),2)=1"</t>
   </si>
@@ -2306,6 +2306,12 @@
   </si>
   <si>
     <t>Word</t>
+  </si>
+  <si>
+    <t>New Folder (Smart)</t>
+  </si>
+  <si>
+    <t>Command + ALT + N</t>
   </si>
 </sst>
 </file>
@@ -2523,217 +2529,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color theme="1"/>
@@ -3077,10 +2873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3613,6 +3409,17 @@
         <v>661</v>
       </c>
       <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>738</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5244,7 +5051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
